--- a/bank statement generator/bank_statements/statement_128.xlsx
+++ b/bank statement generator/bank_statements/statement_128.xlsx
@@ -682,7 +682,7 @@
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>Engin</t>
+          <t>Hartmut</t>
         </is>
       </c>
       <c r="D2" s="8" t="n"/>
@@ -699,12 +699,12 @@
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="8" t="inlineStr">
         <is>
-          <t>2267041356247526</t>
+          <t>2570314725427075</t>
         </is>
       </c>
       <c r="C3" s="8" t="inlineStr">
         <is>
-          <t>Peukert</t>
+          <t>Mohaupt</t>
         </is>
       </c>
       <c r="D3" s="8" t="n"/>
@@ -751,7 +751,7 @@
       <c r="C5" s="8" t="n"/>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 22.10.2024</t>
+          <t>KONTOSTAND AM 24.07.2024</t>
         </is>
       </c>
       <c r="E5" s="17" t="n"/>
@@ -759,80 +759,112 @@
     <row r="6" ht="15.75" customHeight="1">
       <c r="B6" s="8" t="inlineStr">
         <is>
-          <t>25.10.</t>
+          <t>27.07.</t>
         </is>
       </c>
       <c r="C6" s="8" t="inlineStr">
         <is>
-          <t>26.10.</t>
+          <t>28.07.</t>
         </is>
       </c>
       <c r="D6" s="8" t="inlineStr">
         <is>
-          <t>MITGLIEDSBEITRAG ZEUS BODYPOWER</t>
+          <t>PAYPAL CGLIPB</t>
         </is>
       </c>
       <c r="E6" s="17" t="inlineStr">
         <is>
-          <t>24,38-</t>
+          <t>73,16-</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="8" t="inlineStr">
         <is>
-          <t>28.10.</t>
+          <t>29.07.</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
         <is>
-          <t>29.10.</t>
+          <t>30.07.</t>
         </is>
       </c>
       <c r="D7" s="8" t="inlineStr">
         <is>
-          <t>MCDONALDS Jessen</t>
+          <t>RECHNUNG VODAFONE GMBH 58155404</t>
         </is>
       </c>
       <c r="E7" s="17" t="inlineStr">
         <is>
-          <t>15,24-</t>
+          <t>38,74-</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="8" t="inlineStr">
         <is>
-          <t>31.10.</t>
+          <t>02.08.</t>
         </is>
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
-          <t>01.11.</t>
+          <t>03.08.</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
         <is>
-          <t>BEITRAG Allianz SE K-72512341</t>
+          <t>MITGLIEDSBEITRAG ZEUS BODYPOWER</t>
         </is>
       </c>
       <c r="E8" s="17" t="inlineStr">
         <is>
-          <t>53,33-</t>
+          <t>25,30-</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="8" t="n"/>
-      <c r="C9" s="8" t="n"/>
-      <c r="D9" s="8" t="n"/>
-      <c r="E9" s="13" t="n"/>
+      <c r="B9" s="8" t="inlineStr">
+        <is>
+          <t>06.08.</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>07.08.</t>
+        </is>
+      </c>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>AMAZON.DE MKTPLC EU ABGBIL</t>
+        </is>
+      </c>
+      <c r="E9" s="17" t="inlineStr">
+        <is>
+          <t>246,26-</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="B10" s="8" t="n"/>
-      <c r="C10" s="8" t="n"/>
-      <c r="D10" s="8" t="n"/>
-      <c r="E10" s="12" t="n"/>
+      <c r="B10" s="8" t="inlineStr">
+        <is>
+          <t>08.08.</t>
+        </is>
+      </c>
+      <c r="C10" s="8" t="inlineStr">
+        <is>
+          <t>09.08.</t>
+        </is>
+      </c>
+      <c r="D10" s="8" t="inlineStr">
+        <is>
+          <t>ABSCHLAG STROM Stadtwerke Rosenheim 20294526</t>
+        </is>
+      </c>
+      <c r="E10" s="17" t="inlineStr">
+        <is>
+          <t>87,65-</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="B11" s="8" t="n"/>
@@ -845,12 +877,12 @@
       <c r="C12" s="8" t="n"/>
       <c r="D12" s="9" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 05.11.2024</t>
+          <t>KONTOSTAND AM 13.08.2024</t>
         </is>
       </c>
       <c r="E12" s="17" t="inlineStr">
         <is>
-          <t>92,95-</t>
+          <t>471,11-</t>
         </is>
       </c>
     </row>
@@ -858,7 +890,7 @@
       <c r="B13" s="11" t="n"/>
       <c r="C13" s="11" t="inlineStr">
         <is>
-          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 13.11.2024</t>
+          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 21.08.2024</t>
         </is>
       </c>
       <c r="D13" s="11" t="n"/>
